--- a/data/trans_dic/P14B34-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14B34-Provincia-trans_dic.xlsx
@@ -613,10 +613,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.003417400181611667</v>
+        <v>0.003411873473308398</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01690864451511664</v>
+        <v>0.01681982791919861</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.03111171315995023</v>
+        <v>0.03113941161158022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06237921916053537</v>
+        <v>0.06139287938823371</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01301938455258115</v>
+        <v>0.01314989415478535</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0.009169843516828287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.006660436661246509</v>
+        <v>0.006660436661246508</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.01007589095234718</v>
+        <v>0.00998117204034259</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003464252012690437</v>
+        <v>0.003409283027878586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00196797735960627</v>
+        <v>0.001989470137605572</v>
       </c>
     </row>
     <row r="9">
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.04008825406560059</v>
+        <v>0.03804813454943442</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02349066447285211</v>
+        <v>0.02538273878468052</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01793987313661297</v>
+        <v>0.01802420553440431</v>
       </c>
     </row>
     <row r="10">
@@ -721,7 +721,7 @@
         <v>0.0173810218602975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.02091091993767924</v>
+        <v>0.02091091993767925</v>
       </c>
     </row>
     <row r="11">
@@ -733,13 +733,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.003169858207711632</v>
+        <v>0.003172183997053093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007167348775854693</v>
+        <v>0.007105127215360063</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01112051005093584</v>
+        <v>0.01143922956747146</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.03507301922079639</v>
+        <v>0.02885162172793771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03766537572698574</v>
+        <v>0.03987744120051674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03506892157765642</v>
+        <v>0.0358146868927988</v>
       </c>
     </row>
     <row r="13">
@@ -781,7 +781,7 @@
         <v>0.002436678865430427</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.004343066495389608</v>
+        <v>0.004343066495389609</v>
       </c>
     </row>
     <row r="14">
@@ -793,7 +793,7 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.002975770091517184</v>
+        <v>0.003002360765252684</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.03725052064510167</v>
+        <v>0.03629442922595648</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01465439324857771</v>
+        <v>0.0122742370229847</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01462430214685205</v>
+        <v>0.01541253347756395</v>
       </c>
     </row>
     <row r="16">
@@ -853,13 +853,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.004573451603268765</v>
+        <v>0.00459595339755176</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003568206197382634</v>
+        <v>0.003587776748161283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005834114358780421</v>
+        <v>0.005838153514673972</v>
       </c>
     </row>
     <row r="18">
@@ -871,13 +871,13 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.04146657757078752</v>
+        <v>0.04558915542906417</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03190534279389021</v>
+        <v>0.03272985087303287</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03602554835818505</v>
+        <v>0.03505571209151385</v>
       </c>
     </row>
     <row r="19">
@@ -913,13 +913,13 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.003843058318029757</v>
+        <v>0.003927844243449311</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006020614525241167</v>
+        <v>0.006671325201050813</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0191716804529739</v>
+        <v>0.01944826254725422</v>
       </c>
     </row>
     <row r="21">
@@ -931,13 +931,13 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.03836607491643006</v>
+        <v>0.04206849778412272</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03796545795800228</v>
+        <v>0.03743671147837582</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0488845069752838</v>
+        <v>0.04754107376217478</v>
       </c>
     </row>
     <row r="22">
@@ -961,7 +961,7 @@
         <v>0.0103372622579126</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.01294406818392747</v>
+        <v>0.01294406818392748</v>
       </c>
     </row>
     <row r="23">
@@ -973,13 +973,13 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.005009827494711145</v>
+        <v>0.004764166786646456</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004344060847953624</v>
+        <v>0.004184952405748441</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.006059843570823009</v>
+        <v>0.006322533874657706</v>
       </c>
     </row>
     <row r="24">
@@ -991,13 +991,13 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.02191947576576482</v>
+        <v>0.02154556334891954</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02227943551765113</v>
+        <v>0.01976725810141817</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02232274369705981</v>
+        <v>0.02311234752311203</v>
       </c>
     </row>
     <row r="25">
@@ -1033,13 +1033,13 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.01540583780005559</v>
+        <v>0.01521514787682713</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.001110013440323227</v>
+        <v>0.001116760766569395</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0008621808290839227</v>
+        <v>0.0008543827395777675</v>
       </c>
     </row>
     <row r="27">
@@ -1051,13 +1051,13 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.04043440545342599</v>
+        <v>0.03927822917098488</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.009553527280624884</v>
+        <v>0.01046213154764676</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.008196385475204095</v>
+        <v>0.00877488938446094</v>
       </c>
     </row>
     <row r="28">
@@ -1093,13 +1093,13 @@
       </c>
       <c r="C29" s="5" t="inlineStr"/>
       <c r="D29" s="5" t="n">
-        <v>0.01301033410330223</v>
+        <v>0.01270930758254853</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.00795663170362374</v>
+        <v>0.008124139005835728</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.007455330612547365</v>
+        <v>0.007384729388097846</v>
       </c>
     </row>
     <row r="30">
@@ -1111,13 +1111,13 @@
       </c>
       <c r="C30" s="5" t="inlineStr"/>
       <c r="D30" s="5" t="n">
-        <v>0.02171424533858039</v>
+        <v>0.02250756487543995</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01504343890446197</v>
+        <v>0.01500994374347743</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01342369776924862</v>
+        <v>0.01338683341780855</v>
       </c>
     </row>
     <row r="31">
@@ -1271,10 +1271,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4967</v>
+        <v>4941</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -1289,13 +1289,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>9170</v>
+        <v>9178</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18325</v>
+        <v>18035</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4151</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="8">
@@ -1351,13 +1351,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>5094</v>
+        <v>5046</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1741</v>
+        <v>1713</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1037</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>20266</v>
+        <v>19234</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11806</v>
+        <v>12757</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9457</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="12">
@@ -1431,13 +1431,13 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2283</v>
+        <v>2263</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3496</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="15">
@@ -1449,13 +1449,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>11365</v>
+        <v>9349</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11999</v>
+        <v>12704</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11025</v>
+        <v>11259</v>
       </c>
     </row>
     <row r="16">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>13931</v>
+        <v>13573</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5422</v>
+        <v>4541</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5386</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="20">
@@ -1591,13 +1591,13 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="23">
@@ -1609,13 +1609,13 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>8817</v>
+        <v>9693</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6739</v>
+        <v>6913</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7362</v>
+        <v>7164</v>
       </c>
     </row>
     <row r="24">
@@ -1671,13 +1671,13 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>1053</v>
+        <v>1076</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1584</v>
+        <v>1755</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5190</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="27">
@@ -1689,13 +1689,13 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>10512</v>
+        <v>11526</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9990</v>
+        <v>9850</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13233</v>
+        <v>12870</v>
       </c>
     </row>
     <row r="28">
@@ -1751,13 +1751,13 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>3309</v>
+        <v>3147</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2852</v>
+        <v>2748</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4318</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="31">
@@ -1769,13 +1769,13 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>14480</v>
+        <v>14233</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>14628</v>
+        <v>12978</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15906</v>
+        <v>16469</v>
       </c>
     </row>
     <row r="32">
@@ -1831,13 +1831,13 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>11986</v>
+        <v>11838</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35">
@@ -1849,13 +1849,13 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>31460</v>
+        <v>30560</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>7438</v>
+        <v>8146</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>6517</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="36">
@@ -1911,13 +1911,13 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>44541</v>
+        <v>43511</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>27008</v>
+        <v>27576</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>26179</v>
+        <v>25931</v>
       </c>
     </row>
     <row r="39">
@@ -1929,13 +1929,13 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>74340</v>
+        <v>77055</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>51063</v>
+        <v>50949</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>47136</v>
+        <v>47006</v>
       </c>
     </row>
     <row r="40">
